--- a/biology/Médecine/Jean_François_Coste/Jean_François_Coste.xlsx
+++ b/biology/Médecine/Jean_François_Coste/Jean_François_Coste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Coste</t>
+          <t>Jean_François_Coste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean François Coste, né le 4 juin 1741 à Villes (France) et mort le 8 novembre 1819 à Paris (France), est un médecin militaire et homme politique Français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Coste</t>
+          <t>Jean_François_Coste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-François Coste est né en 1741 d'un père qui exerçait l'art de guérir. Après avoir fait avec succès ses premières études à Belley, puis au petit séminaire de Lyon, le jeune Coste se décida à embrasser la profession de son père et, afin de rendre son instruction plus complète, il partit pour Paris, où il profita des leçons des professeurs renommés de cette époque, tels qu'Astruc, Rouelle, Jussieu, Antoine Petit. Les épreuves pour obtenir à Paris le titre de docteur étant alors très onéreuses, les moyens de Coste ne pouvaient y suffire. Muni de connaissances solides, il se rendit à Valence, et c’est dans cette ville qu'il acquit le doctorat avant de retourner dans son pays natal. 
 L'occasion d'exercer ses talents ne se fit pas attendre. Une épidémie alarmante s'étant répandue dans la contrée, le jeune Coste vola au secours des malades et leur prodigua ses soins avec un zèle et un dévouement qui furent couronnés de succès. Des confins de Bugey et du pays de Gex, l'épidémie s'était propagée jusqu'à Ferney, habité alors par Voltaire celui-ci, ayant appris que quelques-uns de ses colons devaient leur rétablissement aux soins de Coste, et que, de plus, ce médecin était moins étranger à la culture des lettres que ne le sont ordinairement les docteurs de campagne, désira le voir, et lui fit un accueil plein d'estime et de bienveillance. Lorsque, à l'occasion des troubles de Genève, il s'agit d'établir à Versoix un hôpital militaire pour les troupes envoyées sur cette frontière, Coste demanda la place de médecin de cet hôpital, et l'obtint à la recommandation de Voltaire, qui écrivit au duc de Choiseul une lettre intitulée : Requête de l'ermite de Ferney, présentée par M. Coste, médecin. Cette lettre est du mois d'août 1769, et se trouve imprimée dans la correspondance de Voltaire. En 1772, Coste passa à l'hôpital militaire de Nancy. Cette ville présentait à cette époque quelques quartiers peu salubres et, dans l'intention de remédier à cet inconvénient, l'académie de Nancy avait mis au concours cette question d'insalubrité. 
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Coste</t>
+          <t>Jean_François_Coste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lettre à M. Joly sur l'épidémie de Colonges au pays de Gex, Gex, 1763, in-8°.
 Éloge de M. Pierrot, membre de l'académie de chirurgie, Nancy, 1773, in-8° ;
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Fran%C3%A7ois_Coste</t>
+          <t>Jean_François_Coste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Jean François Coste », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
 </t>
